--- a/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>AnimationName</t>
+  </si>
+  <si>
+    <t>邻村村长</t>
+  </si>
+  <si>
+    <t>山下赵家庄村长赵大宝来访，有村民锄地意外发现一件宝贝，来看看是肾么好东西。</t>
+  </si>
+  <si>
+    <t>朝廷官员</t>
+  </si>
+  <si>
+    <t>兵部左侍郎邹大人来访，为表彰本门为维护社会治安做出的突出贡献，特降赏赐。</t>
+  </si>
+  <si>
+    <t>友派弟子</t>
+  </si>
+  <si>
+    <t>华山派二弟子令狐松奉师命前来拜访，共促两派友好关系，并赠送华山派珍宝以示诚意。</t>
+  </si>
+  <si>
+    <t>土豪乡绅</t>
+  </si>
+  <si>
+    <t>乡绅赵员外来访，特来答谢上月本门弟子清剿土匪时，意外救出了他失散多年的千金。送来了府上珍藏多年的宝贝。</t>
   </si>
 </sst>
 </file>
@@ -52,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -73,22 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,13 +105,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,31 +118,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,38 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +224,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -231,13 +255,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,13 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,25 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,121 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,8 +467,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,24 +529,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,51 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,143 +579,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,19 +1069,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.88333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.4416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="106.625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1099,149 +1129,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
+      <c r="C8" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
@@ -1074,7 +1074,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30710" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>ID</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>AnimationName</t>
+    <t>Desc</t>
   </si>
   <si>
     <t>邻村村长</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,13 +97,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,6 +112,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -126,6 +140,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -133,64 +161,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -211,30 +194,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,31 +255,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,37 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,109 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,15 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -508,6 +499,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,40 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,143 +579,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,18 +1071,18 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="106.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.87272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="106.627272727273" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1130,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1144,7 +1141,7 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1155,10 +1152,10 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1166,7 +1163,7 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">

--- a/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30710" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>ID</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>AnimationName</t>
+    <t>Desc</t>
   </si>
   <si>
     <t>邻村村长</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,13 +97,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,6 +112,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -126,6 +140,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -133,64 +161,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +177,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -211,30 +194,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,31 +255,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,37 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,109 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,15 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -508,6 +499,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,40 +561,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,143 +579,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,15 +1074,15 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="106.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.87272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="106.627272727273" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1130,7 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1144,7 +1141,7 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1155,10 +1152,10 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1166,7 +1163,7 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">

--- a/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30710" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -49,7 +49,7 @@
     <t>邻村村长</t>
   </si>
   <si>
-    <t>山下赵家庄村长赵大宝来访，有村民锄地意外发现一件宝贝，来看看是肾么好东西。</t>
+    <t>山下赵家村村长赵大宝来访，有村民锄地意外发现一件宝贝，特意送来给掌门瞅瞅。</t>
   </si>
   <si>
     <t>朝廷官员</t>
@@ -61,13 +61,19 @@
     <t>友派弟子</t>
   </si>
   <si>
-    <t>华山派二弟子令狐松奉师命前来拜访，共促两派友好关系，并赠送华山派珍宝以示诚意。</t>
+    <t>华山派二弟子令狐松奉师命前来拜访，共促两派友好关系，并送上珍宝以示诚意。</t>
   </si>
   <si>
     <t>土豪乡绅</t>
   </si>
   <si>
-    <t>乡绅赵员外来访，特来答谢上月本门弟子清剿土匪时，意外救出了他失散多年的千金。送来了府上珍藏多年的宝贝。</t>
+    <t>乡绅赵员外为答谢前几天本门弟子帮忙抓捕刺客，专程送来府上珍藏多年的宝贝。</t>
+  </si>
+  <si>
+    <t>过路镖师</t>
+  </si>
+  <si>
+    <t>龙门镖局总镖头来访，久闻诸英雄大名，走镖至此，特来拜会，奉上一点小意思不成敬意。</t>
   </si>
 </sst>
 </file>
@@ -75,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,6 +109,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -111,61 +176,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,23 +215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,33 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,43 +261,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +363,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,43 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,79 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,30 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,16 +543,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,143 +585,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1066,23 +1078,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.87272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="106.627272727273" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="106.625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1168,6 +1180,17 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -52,16 +52,16 @@
     <t>山下赵家村村长赵大宝来访，有村民锄地意外发现一件宝贝，特意送来给掌门瞅瞅。</t>
   </si>
   <si>
+    <t>山下李家村村庄村长李二宝来访，上个月多亏你们清剿土匪，村民们准备了一份薄礼请笑纳。</t>
+  </si>
+  <si>
     <t>朝廷官员</t>
   </si>
   <si>
     <t>兵部左侍郎邹大人来访，为表彰本门为维护社会治安做出的突出贡献，特降赏赐。</t>
   </si>
   <si>
-    <t>友派弟子</t>
-  </si>
-  <si>
-    <t>华山派二弟子令狐松奉师命前来拜访，共促两派友好关系，并送上珍宝以示诚意。</t>
+    <t>知府赵大人来访，朝廷为嘉奖门派清扫匪患取得的成果，特降恩赏。</t>
   </si>
   <si>
     <t>土豪乡绅</t>
@@ -70,10 +70,16 @@
     <t>乡绅赵员外为答谢前几天本门弟子帮忙抓捕刺客，专程送来府上珍藏多年的宝贝。</t>
   </si>
   <si>
+    <t>江南钱庄王掌柜到访，送来庄上珍藏多年宝物，以增进和咱们门派友谊。</t>
+  </si>
+  <si>
     <t>过路镖师</t>
   </si>
   <si>
-    <t>龙门镖局总镖头来访，久闻诸英雄大名，走镖至此，特来拜会，奉上一点小意思不成敬意。</t>
+    <t>龙门镖局总镖头龙傲天来访，久闻贵派大名，走镖至此，特来拜会，奉上一点小意思不成敬意。</t>
+  </si>
+  <si>
+    <t>昌隆镖局白镖头到访，路经贵地天色已晚，借宿一晚可否，小小心意请笑纳。</t>
   </si>
 </sst>
 </file>
@@ -81,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,6 +108,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,7 +139,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,45 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,9 +222,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,56 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +267,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,169 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,8 +478,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -490,6 +498,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,8 +529,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,35 +567,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,152 +591,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1078,19 +1075,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="106.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="137.75" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1154,21 +1151,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1176,21 +1173,54 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>访客名</t>
   </si>
   <si>
+    <t>角色立绘</t>
+  </si>
+  <si>
     <t>访客文本</t>
   </si>
   <si>
@@ -43,12 +46,18 @@
     <t>Name</t>
   </si>
   <si>
+    <t>RoleRes</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
     <t>邻村村长</t>
   </si>
   <si>
+    <t>cunzhang</t>
+  </si>
+  <si>
     <t>山下赵家村村长赵大宝来访，有村民锄地意外发现一件宝贝，特意送来给掌门瞅瞅。</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>朝廷官员</t>
   </si>
   <si>
+    <t>guanyuan</t>
+  </si>
+  <si>
     <t>兵部左侍郎邹大人来访，为表彰本门为维护社会治安做出的突出贡献，特降赏赐。</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t>土豪乡绅</t>
   </si>
   <si>
+    <t>xiangshen</t>
+  </si>
+  <si>
     <t>乡绅赵员外为答谢前几天本门弟子帮忙抓捕刺客，专程送来府上珍藏多年的宝贝。</t>
   </si>
   <si>
@@ -74,6 +89,9 @@
   </si>
   <si>
     <t>过路镖师</t>
+  </si>
+  <si>
+    <t>biaoshi</t>
   </si>
   <si>
     <t>龙门镖局总镖头龙傲天来访，久闻贵派大名，走镖至此，特来拜会，奉上一点小意思不成敬意。</t>
@@ -87,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,52 +126,115 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,9 +242,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,78 +256,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -506,7 +513,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,15 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,40 +591,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,23 +1093,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="137.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="87.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,130 +1120,166 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C18">
+  <sortState ref="A3:D18">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
